--- a/Jogos_da_Semana_FlashScore_2024-10-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-03.xlsx
@@ -747,46 +747,46 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="H2" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="J2" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="K2" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="L2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="P2" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="R2" t="n">
-        <v>1.36</v>
+        <v>1.48</v>
       </c>
       <c r="S2" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="U2" t="n">
         <v>2.63</v>
@@ -795,46 +795,46 @@
         <v>1.44</v>
       </c>
       <c r="W2" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="X2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y2" t="n">
         <v>10</v>
       </c>
       <c r="Z2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AD2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="n">
         <v>26</v>
       </c>
       <c r="AF2" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AG2" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AI2" t="n">
         <v>19</v>
       </c>
       <c r="AJ2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK2" t="n">
         <v>51</v>
@@ -846,25 +846,25 @@
         <v>201</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="AO2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ2" t="n">
         <v>34</v>
       </c>
-      <c r="AQ2" t="n">
-        <v>41</v>
-      </c>
       <c r="AR2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS2" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AU2" t="n">
         <v>11</v>
@@ -873,7 +873,7 @@
         <v>101</v>
       </c>
       <c r="AW2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX2" t="n">
         <v>34</v>
@@ -929,10 +929,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I3" t="n">
         <v>5.5</v>
@@ -941,7 +941,7 @@
         <v>2.2</v>
       </c>
       <c r="K3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L3" t="n">
         <v>6</v>
@@ -950,40 +950,40 @@
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O3" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P3" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="R3" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="S3" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T3" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z3" t="n">
         <v>11</v>
@@ -992,10 +992,10 @@
         <v>15</v>
       </c>
       <c r="AB3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD3" t="n">
         <v>7.5</v>
@@ -1004,13 +1004,13 @@
         <v>21</v>
       </c>
       <c r="AF3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI3" t="n">
         <v>17</v>
@@ -1019,7 +1019,7 @@
         <v>67</v>
       </c>
       <c r="AK3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL3" t="n">
         <v>51</v>
@@ -1031,7 +1031,7 @@
         <v>3.4</v>
       </c>
       <c r="AO3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP3" t="n">
         <v>21</v>
@@ -1043,13 +1043,13 @@
         <v>51</v>
       </c>
       <c r="AS3" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV3" t="n">
         <v>67</v>
@@ -1111,64 +1111,64 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I4" t="n">
         <v>6.5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K4" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L4" t="n">
         <v>7</v>
       </c>
       <c r="M4" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="P4" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V4" t="n">
         <v>1.44</v>
       </c>
-      <c r="S4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.5</v>
-      </c>
       <c r="W4" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="X4" t="n">
         <v>6</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA4" t="n">
         <v>19</v>
@@ -1177,7 +1177,7 @@
         <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AD4" t="n">
         <v>7</v>
@@ -1186,7 +1186,7 @@
         <v>26</v>
       </c>
       <c r="AF4" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AG4" t="n">
         <v>11</v>
@@ -1195,16 +1195,16 @@
         <v>29</v>
       </c>
       <c r="AI4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ4" t="n">
         <v>81</v>
       </c>
       <c r="AK4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AM4" t="n">
         <v>201</v>
@@ -1213,7 +1213,7 @@
         <v>3.4</v>
       </c>
       <c r="AO4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP4" t="n">
         <v>29</v>
@@ -1222,13 +1222,13 @@
         <v>34</v>
       </c>
       <c r="AR4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS4" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU4" t="n">
         <v>11</v>
@@ -1323,10 +1323,10 @@
         <v>3.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R5" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S5" t="n">
         <v>1.4</v>
@@ -1389,7 +1389,7 @@
         <v>51</v>
       </c>
       <c r="AM5" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
         <v>3.4</v>
@@ -1475,148 +1475,148 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="H6" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="K6" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="L6" t="n">
         <v>2</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O6" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P6" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="R6" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="S6" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="T6" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="U6" t="n">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="V6" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="W6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X6" t="n">
         <v>34</v>
       </c>
       <c r="Y6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Z6" t="n">
         <v>51</v>
       </c>
       <c r="AA6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AB6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE6" t="n">
         <v>13</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>15</v>
       </c>
       <c r="AF6" t="n">
         <v>41</v>
       </c>
       <c r="AG6" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AH6" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AJ6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK6" t="n">
         <v>12</v>
       </c>
       <c r="AL6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>126</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO6" t="n">
         <v>23</v>
       </c>
-      <c r="AM6" t="n">
-        <v>151</v>
-      </c>
-      <c r="AN6" t="n">
+      <c r="AP6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU6" t="n">
         <v>7.5</v>
       </c>
-      <c r="AO6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>8</v>
-      </c>
       <c r="AV6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW6" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AX6" t="n">
         <v>7.5</v>
       </c>
       <c r="AY6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ6" t="n">
         <v>21</v>
       </c>
       <c r="BA6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BB6" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC6" t="n">
         <v>81</v>
@@ -1839,22 +1839,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H8" t="n">
         <v>3.6</v>
       </c>
       <c r="I8" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="J8" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K8" t="n">
         <v>2.3</v>
       </c>
       <c r="L8" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M8" t="n">
         <v>1.03</v>
@@ -1890,7 +1890,7 @@
         <v>12</v>
       </c>
       <c r="X8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y8" t="n">
         <v>11</v>
@@ -1947,7 +1947,7 @@
         <v>21</v>
       </c>
       <c r="AQ8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR8" t="n">
         <v>51</v>
@@ -1968,7 +1968,7 @@
         <v>4.5</v>
       </c>
       <c r="AX8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY8" t="n">
         <v>19</v>
@@ -1980,7 +1980,7 @@
         <v>51</v>
       </c>
       <c r="BB8" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC8" t="n">
         <v>401</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-03.xlsx
@@ -747,28 +747,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H2" t="n">
         <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
         <v>2.5</v>
       </c>
       <c r="K2" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L2" t="n">
+        <v>6</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N2" t="n">
         <v>6.5</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N2" t="n">
-        <v>7</v>
       </c>
       <c r="O2" t="n">
         <v>1.53</v>
@@ -783,25 +783,25 @@
         <v>1.48</v>
       </c>
       <c r="S2" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="U2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V2" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W2" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="X2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z2" t="n">
         <v>13</v>
@@ -813,13 +813,13 @@
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AD2" t="n">
         <v>7</v>
       </c>
       <c r="AE2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF2" t="n">
         <v>101</v>
@@ -828,25 +828,25 @@
         <v>9.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI2" t="n">
         <v>19</v>
       </c>
       <c r="AJ2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK2" t="n">
         <v>51</v>
       </c>
       <c r="AL2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM2" t="n">
         <v>201</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO2" t="n">
         <v>10</v>
@@ -864,16 +864,16 @@
         <v>301</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AU2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AW2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AX2" t="n">
         <v>34</v>
@@ -882,7 +882,7 @@
         <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BA2" t="n">
         <v>201</v>
@@ -938,7 +938,7 @@
         <v>5.5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K3" t="n">
         <v>2.1</v>
@@ -947,10 +947,10 @@
         <v>6</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.36</v>
@@ -1013,7 +1013,7 @@
         <v>26</v>
       </c>
       <c r="AI3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ3" t="n">
         <v>67</v>
@@ -1034,10 +1034,10 @@
         <v>8.5</v>
       </c>
       <c r="AP3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR3" t="n">
         <v>51</v>
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="H4" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="J4" t="n">
-        <v>2.4</v>
+        <v>2.63</v>
       </c>
       <c r="K4" t="n">
         <v>1.91</v>
       </c>
       <c r="L4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M4" t="n">
         <v>1.13</v>
@@ -1135,10 +1135,10 @@
         <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P4" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q4" t="n">
         <v>2.88</v>
@@ -1153,25 +1153,25 @@
         <v>2.2</v>
       </c>
       <c r="U4" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V4" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W4" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="X4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y4" t="n">
         <v>10</v>
       </c>
       <c r="Z4" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AA4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB4" t="n">
         <v>41</v>
@@ -1180,46 +1180,46 @@
         <v>5.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF4" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AI4" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AJ4" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AK4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL4" t="n">
         <v>67</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>81</v>
       </c>
       <c r="AM4" t="n">
         <v>201</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AO4" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AP4" t="n">
         <v>29</v>
       </c>
       <c r="AQ4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR4" t="n">
         <v>81</v>
@@ -1231,25 +1231,25 @@
         <v>2.2</v>
       </c>
       <c r="AU4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV4" t="n">
         <v>101</v>
       </c>
       <c r="AW4" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AX4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY4" t="n">
         <v>41</v>
       </c>
-      <c r="AY4" t="n">
-        <v>51</v>
-      </c>
       <c r="AZ4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BA4" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BB4" t="n">
         <v>501</v>
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="I5" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="J5" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="K5" t="n">
         <v>2.2</v>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
@@ -1323,10 +1323,10 @@
         <v>3.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R5" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S5" t="n">
         <v>1.4</v>
@@ -1335,25 +1335,25 @@
         <v>2.75</v>
       </c>
       <c r="U5" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W5" t="n">
         <v>6.5</v>
       </c>
       <c r="X5" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="Y5" t="n">
         <v>9</v>
       </c>
       <c r="Z5" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AA5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB5" t="n">
         <v>29</v>
@@ -1362,46 +1362,46 @@
         <v>10</v>
       </c>
       <c r="AD5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF5" t="n">
         <v>67</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AH5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AO5" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AP5" t="n">
         <v>21</v>
       </c>
       <c r="AQ5" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AR5" t="n">
         <v>51</v>
@@ -1413,25 +1413,25 @@
         <v>2.75</v>
       </c>
       <c r="AU5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AX5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY5" t="n">
         <v>34</v>
       </c>
-      <c r="AY5" t="n">
-        <v>41</v>
-      </c>
       <c r="AZ5" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA5" t="n">
         <v>126</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>151</v>
       </c>
       <c r="BB5" t="n">
         <v>500</v>
@@ -1657,13 +1657,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H7" t="n">
         <v>3.3</v>
       </c>
       <c r="I7" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
         <v>2.75</v>
@@ -1672,7 +1672,7 @@
         <v>2.2</v>
       </c>
       <c r="L7" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M7" t="n">
         <v>1.04</v>
@@ -1693,28 +1693,28 @@
         <v>2.05</v>
       </c>
       <c r="S7" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T7" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U7" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V7" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W7" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y7" t="n">
         <v>9.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA7" t="n">
         <v>17</v>
@@ -1744,7 +1744,7 @@
         <v>12</v>
       </c>
       <c r="AJ7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK7" t="n">
         <v>23</v>
@@ -1756,10 +1756,10 @@
         <v>151</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP7" t="n">
         <v>21</v>
@@ -1774,7 +1774,7 @@
         <v>126</v>
       </c>
       <c r="AT7" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU7" t="n">
         <v>7.5</v>
@@ -1783,10 +1783,10 @@
         <v>51</v>
       </c>
       <c r="AW7" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY7" t="n">
         <v>23</v>
@@ -1857,10 +1857,10 @@
         <v>3</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O8" t="n">
         <v>1.2</v>
@@ -1869,10 +1869,10 @@
         <v>4.33</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R8" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S8" t="n">
         <v>1.33</v>
@@ -1887,7 +1887,7 @@
         <v>2.25</v>
       </c>
       <c r="W8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X8" t="n">
         <v>15</v>
@@ -1905,7 +1905,7 @@
         <v>26</v>
       </c>
       <c r="AC8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD8" t="n">
         <v>7</v>
@@ -1935,7 +1935,7 @@
         <v>23</v>
       </c>
       <c r="AM8" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AN8" t="n">
         <v>5</v>
@@ -1947,7 +1947,7 @@
         <v>21</v>
       </c>
       <c r="AQ8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR8" t="n">
         <v>51</v>
@@ -1983,7 +1983,7 @@
         <v>126</v>
       </c>
       <c r="BC8" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="BD8" t="n">
         <v>151</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-03.xlsx
@@ -944,13 +944,13 @@
         <v>2.1</v>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O3" t="n">
         <v>1.36</v>
@@ -971,10 +971,10 @@
         <v>2.63</v>
       </c>
       <c r="U3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V3" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W3" t="n">
         <v>5.5</v>
@@ -1001,13 +1001,13 @@
         <v>7.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF3" t="n">
         <v>81</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH3" t="n">
         <v>26</v>
@@ -1064,7 +1064,7 @@
         <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA3" t="n">
         <v>151</v>
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>5.25</v>
+        <v>7</v>
       </c>
       <c r="J4" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="K4" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M4" t="n">
         <v>1.13</v>
@@ -1141,10 +1141,10 @@
         <v>2.25</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="R4" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S4" t="n">
         <v>1.62</v>
@@ -1153,25 +1153,25 @@
         <v>2.2</v>
       </c>
       <c r="U4" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V4" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W4" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="X4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y4" t="n">
         <v>10</v>
       </c>
       <c r="Z4" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AA4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB4" t="n">
         <v>41</v>
@@ -1180,49 +1180,49 @@
         <v>5.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI4" t="n">
         <v>23</v>
       </c>
-      <c r="AF4" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>19</v>
-      </c>
       <c r="AJ4" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AK4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AM4" t="n">
         <v>201</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="AO4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AP4" t="n">
         <v>29</v>
       </c>
       <c r="AQ4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR4" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS4" t="n">
         <v>351</v>
@@ -1231,25 +1231,25 @@
         <v>2.2</v>
       </c>
       <c r="AU4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV4" t="n">
         <v>101</v>
       </c>
       <c r="AW4" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AX4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AY4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ4" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="BA4" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="BB4" t="n">
         <v>501</v>
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="H5" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I5" t="n">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="J5" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="K5" t="n">
         <v>2.2</v>
       </c>
       <c r="L5" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
@@ -1323,10 +1323,10 @@
         <v>3.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R5" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S5" t="n">
         <v>1.4</v>
@@ -1335,22 +1335,22 @@
         <v>2.75</v>
       </c>
       <c r="U5" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V5" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y5" t="n">
         <v>9</v>
       </c>
       <c r="Z5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA5" t="n">
         <v>15</v>
@@ -1362,22 +1362,22 @@
         <v>10</v>
       </c>
       <c r="AD5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG5" t="n">
         <v>12</v>
       </c>
       <c r="AH5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ5" t="n">
         <v>51</v>
@@ -1389,19 +1389,19 @@
         <v>41</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP5" t="n">
         <v>21</v>
       </c>
       <c r="AQ5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR5" t="n">
         <v>51</v>
@@ -1413,25 +1413,25 @@
         <v>2.75</v>
       </c>
       <c r="AU5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV5" t="n">
         <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AX5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY5" t="n">
         <v>34</v>
       </c>
       <c r="AZ5" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA5" t="n">
         <v>101</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>126</v>
       </c>
       <c r="BB5" t="n">
         <v>500</v>
@@ -1475,28 +1475,28 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="I6" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="J6" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="K6" t="n">
         <v>2.5</v>
       </c>
       <c r="L6" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="M6" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.14</v>
@@ -1517,19 +1517,19 @@
         <v>3.75</v>
       </c>
       <c r="U6" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V6" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Z6" t="n">
         <v>51</v>
@@ -1541,7 +1541,7 @@
         <v>34</v>
       </c>
       <c r="AC6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD6" t="n">
         <v>8.5</v>
@@ -1550,19 +1550,19 @@
         <v>13</v>
       </c>
       <c r="AF6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH6" t="n">
         <v>10</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>9.5</v>
       </c>
       <c r="AI6" t="n">
         <v>9</v>
       </c>
       <c r="AJ6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK6" t="n">
         <v>12</v>
@@ -1571,22 +1571,22 @@
         <v>19</v>
       </c>
       <c r="AM6" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AN6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AO6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP6" t="n">
         <v>23</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>26</v>
       </c>
       <c r="AQ6" t="n">
         <v>67</v>
       </c>
       <c r="AR6" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS6" t="n">
         <v>126</v>
@@ -1604,16 +1604,16 @@
         <v>4</v>
       </c>
       <c r="AX6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AY6" t="n">
         <v>15</v>
       </c>
       <c r="AZ6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BB6" t="n">
         <v>81</v>
@@ -1675,37 +1675,37 @@
         <v>3.4</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N7" t="n">
+        <v>11</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W7" t="n">
         <v>9</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P7" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W7" t="n">
-        <v>9.5</v>
       </c>
       <c r="X7" t="n">
         <v>12</v>
@@ -1720,10 +1720,10 @@
         <v>17</v>
       </c>
       <c r="AB7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD7" t="n">
         <v>6.5</v>
@@ -1735,7 +1735,7 @@
         <v>41</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH7" t="n">
         <v>17</v>
@@ -1774,7 +1774,7 @@
         <v>126</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU7" t="n">
         <v>7.5</v>
@@ -1786,7 +1786,7 @@
         <v>5</v>
       </c>
       <c r="AX7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY7" t="n">
         <v>23</v>
@@ -1857,10 +1857,10 @@
         <v>3</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O8" t="n">
         <v>1.2</v>
@@ -1869,10 +1869,10 @@
         <v>4.33</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R8" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S8" t="n">
         <v>1.33</v>
@@ -1887,7 +1887,7 @@
         <v>2.25</v>
       </c>
       <c r="W8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X8" t="n">
         <v>15</v>
@@ -1905,7 +1905,7 @@
         <v>26</v>
       </c>
       <c r="AC8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD8" t="n">
         <v>7</v>
@@ -1935,7 +1935,7 @@
         <v>23</v>
       </c>
       <c r="AM8" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AN8" t="n">
         <v>5</v>
@@ -1947,7 +1947,7 @@
         <v>21</v>
       </c>
       <c r="AQ8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR8" t="n">
         <v>51</v>
@@ -1983,7 +1983,7 @@
         <v>126</v>
       </c>
       <c r="BC8" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="BD8" t="n">
         <v>151</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-03.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="H2" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J2" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="K2" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.11</v>
@@ -777,10 +777,10 @@
         <v>2.38</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R2" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S2" t="n">
         <v>1.57</v>
@@ -804,7 +804,7 @@
         <v>9.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA2" t="n">
         <v>19</v>
@@ -813,10 +813,10 @@
         <v>41</v>
       </c>
       <c r="AC2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD2" t="n">
         <v>6.5</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>7</v>
       </c>
       <c r="AE2" t="n">
         <v>23</v>
@@ -825,19 +825,19 @@
         <v>101</v>
       </c>
       <c r="AG2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ2" t="n">
         <v>51</v>
       </c>
       <c r="AK2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL2" t="n">
         <v>51</v>
@@ -846,19 +846,19 @@
         <v>201</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP2" t="n">
         <v>29</v>
       </c>
       <c r="AQ2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS2" t="n">
         <v>301</v>
@@ -876,7 +876,7 @@
         <v>6.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY2" t="n">
         <v>41</v>
@@ -947,22 +947,22 @@
         <v>6.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P3" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S3" t="n">
         <v>1.44</v>
@@ -1117,7 +1117,7 @@
         <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J4" t="n">
         <v>2.38</v>
@@ -1129,16 +1129,16 @@
         <v>7</v>
       </c>
       <c r="M4" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P4" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q4" t="n">
         <v>2.7</v>
@@ -1177,13 +1177,13 @@
         <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AD4" t="n">
         <v>7</v>
       </c>
       <c r="AE4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF4" t="n">
         <v>126</v>
@@ -1249,7 +1249,7 @@
         <v>201</v>
       </c>
       <c r="BA4" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BB4" t="n">
         <v>501</v>
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="H5" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="I5" t="n">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="J5" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="K5" t="n">
         <v>2.2</v>
       </c>
       <c r="L5" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
@@ -1323,10 +1323,10 @@
         <v>3.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R5" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S5" t="n">
         <v>1.4</v>
@@ -1341,43 +1341,43 @@
         <v>1.8</v>
       </c>
       <c r="W5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y5" t="n">
         <v>9</v>
       </c>
       <c r="Z5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA5" t="n">
         <v>13</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>15</v>
       </c>
       <c r="AB5" t="n">
         <v>29</v>
       </c>
       <c r="AC5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF5" t="n">
         <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ5" t="n">
         <v>51</v>
@@ -1392,16 +1392,16 @@
         <v>900</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP5" t="n">
         <v>21</v>
       </c>
       <c r="AQ5" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AR5" t="n">
         <v>51</v>
@@ -1419,19 +1419,19 @@
         <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY5" t="n">
         <v>34</v>
       </c>
       <c r="AZ5" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA5" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB5" t="n">
         <v>500</v>
@@ -1475,28 +1475,28 @@
         </is>
       </c>
       <c r="G6" t="n">
+        <v>5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="J6" t="n">
         <v>4.5</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="J6" t="n">
-        <v>4.33</v>
       </c>
       <c r="K6" t="n">
         <v>2.5</v>
       </c>
       <c r="L6" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="O6" t="n">
         <v>1.14</v>
@@ -1517,19 +1517,19 @@
         <v>3.75</v>
       </c>
       <c r="U6" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V6" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X6" t="n">
         <v>29</v>
       </c>
       <c r="Y6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Z6" t="n">
         <v>51</v>
@@ -1541,7 +1541,7 @@
         <v>34</v>
       </c>
       <c r="AC6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD6" t="n">
         <v>8.5</v>
@@ -1550,16 +1550,16 @@
         <v>13</v>
       </c>
       <c r="AF6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG6" t="n">
         <v>11</v>
       </c>
       <c r="AH6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AJ6" t="n">
         <v>13</v>
@@ -1574,19 +1574,19 @@
         <v>101</v>
       </c>
       <c r="AN6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AO6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ6" t="n">
         <v>67</v>
       </c>
       <c r="AR6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS6" t="n">
         <v>126</v>
@@ -1610,10 +1610,10 @@
         <v>15</v>
       </c>
       <c r="AZ6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BB6" t="n">
         <v>81</v>
@@ -1657,28 +1657,28 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H7" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="J7" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K7" t="n">
         <v>2.2</v>
       </c>
       <c r="L7" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M7" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.25</v>
@@ -1705,7 +1705,7 @@
         <v>2.1</v>
       </c>
       <c r="W7" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X7" t="n">
         <v>12</v>
@@ -1717,7 +1717,7 @@
         <v>21</v>
       </c>
       <c r="AA7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB7" t="n">
         <v>26</v>
@@ -1738,16 +1738,16 @@
         <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ7" t="n">
         <v>29</v>
       </c>
       <c r="AK7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL7" t="n">
         <v>29</v>
@@ -1759,7 +1759,7 @@
         <v>4.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP7" t="n">
         <v>21</v>
@@ -1786,7 +1786,7 @@
         <v>5</v>
       </c>
       <c r="AX7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY7" t="n">
         <v>23</v>
@@ -1839,13 +1839,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H8" t="n">
         <v>3.6</v>
       </c>
       <c r="I8" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="J8" t="n">
         <v>3.25</v>
@@ -1887,13 +1887,13 @@
         <v>2.25</v>
       </c>
       <c r="W8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X8" t="n">
         <v>15</v>
       </c>
       <c r="Y8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z8" t="n">
         <v>29</v>
@@ -1965,7 +1965,7 @@
         <v>41</v>
       </c>
       <c r="AW8" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX8" t="n">
         <v>13</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-03.xlsx
@@ -947,22 +947,22 @@
         <v>6.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O3" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P3" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R3" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S3" t="n">
         <v>1.44</v>
@@ -1111,34 +1111,34 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="H4" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I4" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J4" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K4" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L4" t="n">
         <v>7</v>
       </c>
       <c r="M4" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="N4" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P4" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q4" t="n">
         <v>2.7</v>
@@ -1168,7 +1168,7 @@
         <v>10</v>
       </c>
       <c r="Z4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA4" t="n">
         <v>19</v>
@@ -1177,7 +1177,7 @@
         <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AD4" t="n">
         <v>7</v>
@@ -1186,7 +1186,7 @@
         <v>26</v>
       </c>
       <c r="AF4" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AG4" t="n">
         <v>11</v>
@@ -1201,7 +1201,7 @@
         <v>81</v>
       </c>
       <c r="AK4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL4" t="n">
         <v>81</v>
@@ -1210,10 +1210,10 @@
         <v>201</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AO4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP4" t="n">
         <v>29</v>
@@ -1237,7 +1237,7 @@
         <v>101</v>
       </c>
       <c r="AW4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AX4" t="n">
         <v>41</v>
@@ -1246,7 +1246,7 @@
         <v>51</v>
       </c>
       <c r="AZ4" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BA4" t="n">
         <v>251</v>
@@ -1317,22 +1317,22 @@
         <v>8.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P5" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="R5" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="S5" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T5" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U5" t="n">
         <v>1.91</v>
@@ -1341,13 +1341,13 @@
         <v>1.8</v>
       </c>
       <c r="W5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X5" t="n">
         <v>7.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z5" t="n">
         <v>11</v>
@@ -1410,7 +1410,7 @@
         <v>151</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU5" t="n">
         <v>8.5</v>
@@ -1481,16 +1481,16 @@
         <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="J6" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K6" t="n">
         <v>2.5</v>
       </c>
       <c r="L6" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="M6" t="n">
         <v>1.02</v>
@@ -1499,16 +1499,16 @@
         <v>11</v>
       </c>
       <c r="O6" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P6" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="R6" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="S6" t="n">
         <v>1.25</v>
@@ -1526,7 +1526,7 @@
         <v>21</v>
       </c>
       <c r="X6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y6" t="n">
         <v>17</v>
@@ -1553,16 +1553,16 @@
         <v>41</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH6" t="n">
         <v>9.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AJ6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK6" t="n">
         <v>12</v>
@@ -1571,7 +1571,7 @@
         <v>19</v>
       </c>
       <c r="AM6" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AN6" t="n">
         <v>7</v>
@@ -1604,7 +1604,7 @@
         <v>4</v>
       </c>
       <c r="AX6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AY6" t="n">
         <v>15</v>
@@ -1839,22 +1839,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="H8" t="n">
         <v>3.6</v>
       </c>
       <c r="I8" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="J8" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K8" t="n">
         <v>2.3</v>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M8" t="n">
         <v>1.03</v>
@@ -1875,10 +1875,10 @@
         <v>2.15</v>
       </c>
       <c r="S8" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T8" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U8" t="n">
         <v>1.57</v>
@@ -1887,13 +1887,13 @@
         <v>2.25</v>
       </c>
       <c r="W8" t="n">
+        <v>12</v>
+      </c>
+      <c r="X8" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y8" t="n">
         <v>11</v>
-      </c>
-      <c r="X8" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>10</v>
       </c>
       <c r="Z8" t="n">
         <v>29</v>
@@ -1920,19 +1920,19 @@
         <v>10</v>
       </c>
       <c r="AH8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK8" t="n">
         <v>17</v>
       </c>
       <c r="AL8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM8" t="n">
         <v>126</v>
@@ -1947,7 +1947,7 @@
         <v>21</v>
       </c>
       <c r="AQ8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR8" t="n">
         <v>51</v>
@@ -1956,7 +1956,7 @@
         <v>126</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU8" t="n">
         <v>7</v>
@@ -1965,10 +1965,10 @@
         <v>41</v>
       </c>
       <c r="AW8" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY8" t="n">
         <v>19</v>
@@ -1980,7 +1980,7 @@
         <v>51</v>
       </c>
       <c r="BB8" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC8" t="n">
         <v>401</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-03.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H2" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I2" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J2" t="n">
         <v>2.63</v>
@@ -765,10 +765,10 @@
         <v>5.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O2" t="n">
         <v>1.53</v>
@@ -789,10 +789,10 @@
         <v>2.25</v>
       </c>
       <c r="U2" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V2" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W2" t="n">
         <v>5</v>
@@ -807,7 +807,7 @@
         <v>15</v>
       </c>
       <c r="AA2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
@@ -873,7 +873,7 @@
         <v>81</v>
       </c>
       <c r="AW2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX2" t="n">
         <v>29</v>
@@ -885,7 +885,7 @@
         <v>126</v>
       </c>
       <c r="BA2" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BB2" t="n">
         <v>501</v>
@@ -932,7 +932,7 @@
         <v>1.6</v>
       </c>
       <c r="H3" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I3" t="n">
         <v>5.5</v>
@@ -944,13 +944,13 @@
         <v>2.1</v>
       </c>
       <c r="L3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O3" t="n">
         <v>1.36</v>
@@ -959,10 +959,10 @@
         <v>3</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S3" t="n">
         <v>1.44</v>
@@ -971,10 +971,10 @@
         <v>2.63</v>
       </c>
       <c r="U3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W3" t="n">
         <v>5.5</v>
@@ -1001,7 +1001,7 @@
         <v>7.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF3" t="n">
         <v>81</v>
@@ -1013,13 +1013,13 @@
         <v>26</v>
       </c>
       <c r="AI3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL3" t="n">
         <v>51</v>
@@ -1064,7 +1064,7 @@
         <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BA3" t="n">
         <v>151</v>
@@ -1111,28 +1111,28 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H4" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I4" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J4" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K4" t="n">
         <v>1.91</v>
       </c>
       <c r="L4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
         <v>1.57</v>
@@ -1141,10 +1141,10 @@
         <v>2.25</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R4" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S4" t="n">
         <v>1.62</v>
@@ -1159,10 +1159,10 @@
         <v>1.44</v>
       </c>
       <c r="W4" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="X4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y4" t="n">
         <v>10</v>
@@ -1189,22 +1189,22 @@
         <v>101</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH4" t="n">
         <v>29</v>
       </c>
       <c r="AI4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ4" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AK4" t="n">
         <v>51</v>
       </c>
       <c r="AL4" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AM4" t="n">
         <v>201</v>
@@ -1240,7 +1240,7 @@
         <v>7</v>
       </c>
       <c r="AX4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AY4" t="n">
         <v>51</v>
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="G6" t="n">
+        <v>6</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="J6" t="n">
         <v>5</v>
       </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="J6" t="n">
-        <v>4.75</v>
-      </c>
       <c r="K6" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L6" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="M6" t="n">
         <v>1.02</v>
@@ -1517,37 +1517,37 @@
         <v>3.75</v>
       </c>
       <c r="U6" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V6" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W6" t="n">
+        <v>23</v>
+      </c>
+      <c r="X6" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y6" t="n">
         <v>21</v>
       </c>
-      <c r="X6" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>17</v>
-      </c>
       <c r="Z6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AA6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AB6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC6" t="n">
         <v>19</v>
       </c>
       <c r="AD6" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF6" t="n">
         <v>41</v>
@@ -1556,16 +1556,16 @@
         <v>10</v>
       </c>
       <c r="AH6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AJ6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL6" t="n">
         <v>19</v>
@@ -1574,43 +1574,43 @@
         <v>126</v>
       </c>
       <c r="AN6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR6" t="n">
         <v>81</v>
       </c>
       <c r="AS6" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT6" t="n">
         <v>3.75</v>
       </c>
       <c r="AU6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV6" t="n">
         <v>41</v>
       </c>
       <c r="AW6" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AX6" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AY6" t="n">
         <v>15</v>
       </c>
       <c r="AZ6" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="BA6" t="n">
         <v>34</v>
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="H7" t="n">
         <v>3.25</v>
       </c>
       <c r="I7" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="J7" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
         <v>2.2</v>
       </c>
       <c r="L7" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M7" t="n">
         <v>1.05</v>
@@ -1687,10 +1687,10 @@
         <v>3.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R7" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S7" t="n">
         <v>1.36</v>
@@ -1708,13 +1708,13 @@
         <v>9.5</v>
       </c>
       <c r="X7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA7" t="n">
         <v>19</v>
@@ -1735,7 +1735,7 @@
         <v>41</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH7" t="n">
         <v>15</v>
@@ -1744,7 +1744,7 @@
         <v>11</v>
       </c>
       <c r="AJ7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AK7" t="n">
         <v>21</v>
@@ -1771,7 +1771,7 @@
         <v>51</v>
       </c>
       <c r="AS7" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT7" t="n">
         <v>3</v>
@@ -1783,7 +1783,7 @@
         <v>51</v>
       </c>
       <c r="AW7" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX7" t="n">
         <v>15</v>
@@ -1792,7 +1792,7 @@
         <v>23</v>
       </c>
       <c r="AZ7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA7" t="n">
         <v>67</v>
@@ -1839,46 +1839,46 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="H8" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I8" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K8" t="n">
         <v>2.25</v>
       </c>
-      <c r="J8" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.3</v>
-      </c>
       <c r="L8" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O8" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P8" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R8" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S8" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T8" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U8" t="n">
         <v>1.57</v>
@@ -1887,13 +1887,13 @@
         <v>2.25</v>
       </c>
       <c r="W8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z8" t="n">
         <v>29</v>
@@ -1905,7 +1905,7 @@
         <v>26</v>
       </c>
       <c r="AC8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD8" t="n">
         <v>7</v>
@@ -1920,22 +1920,22 @@
         <v>10</v>
       </c>
       <c r="AH8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AJ8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM8" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AN8" t="n">
         <v>5</v>
@@ -1947,7 +1947,7 @@
         <v>21</v>
       </c>
       <c r="AQ8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR8" t="n">
         <v>51</v>
@@ -1956,7 +1956,7 @@
         <v>126</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU8" t="n">
         <v>7</v>
@@ -1965,13 +1965,13 @@
         <v>41</v>
       </c>
       <c r="AW8" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ8" t="n">
         <v>41</v>
@@ -1980,10 +1980,10 @@
         <v>51</v>
       </c>
       <c r="BB8" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC8" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="BD8" t="n">
         <v>151</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-03.xlsx
@@ -1111,28 +1111,28 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H4" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I4" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J4" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K4" t="n">
         <v>1.91</v>
       </c>
       <c r="L4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M4" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.57</v>
@@ -1159,10 +1159,10 @@
         <v>1.44</v>
       </c>
       <c r="W4" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="X4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y4" t="n">
         <v>10</v>
@@ -1186,25 +1186,25 @@
         <v>26</v>
       </c>
       <c r="AF4" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH4" t="n">
         <v>29</v>
       </c>
       <c r="AI4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AK4" t="n">
         <v>67</v>
       </c>
-      <c r="AK4" t="n">
-        <v>51</v>
-      </c>
       <c r="AL4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AM4" t="n">
         <v>201</v>
@@ -1222,7 +1222,7 @@
         <v>34</v>
       </c>
       <c r="AR4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS4" t="n">
         <v>351</v>
@@ -1237,10 +1237,10 @@
         <v>101</v>
       </c>
       <c r="AW4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AX4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AY4" t="n">
         <v>51</v>
@@ -1481,7 +1481,7 @@
         <v>4.33</v>
       </c>
       <c r="I6" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="J6" t="n">
         <v>5</v>
@@ -1523,13 +1523,13 @@
         <v>2.2</v>
       </c>
       <c r="W6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Y6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z6" t="n">
         <v>67</v>
@@ -1544,7 +1544,7 @@
         <v>19</v>
       </c>
       <c r="AD6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE6" t="n">
         <v>15</v>
@@ -1559,7 +1559,7 @@
         <v>9</v>
       </c>
       <c r="AI6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AJ6" t="n">
         <v>11</v>
@@ -1568,7 +1568,7 @@
         <v>11</v>
       </c>
       <c r="AL6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM6" t="n">
         <v>126</v>
@@ -1610,7 +1610,7 @@
         <v>15</v>
       </c>
       <c r="AZ6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BA6" t="n">
         <v>34</v>
@@ -1657,13 +1657,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H7" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I7" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J7" t="n">
         <v>3</v>
@@ -1672,7 +1672,7 @@
         <v>2.2</v>
       </c>
       <c r="L7" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M7" t="n">
         <v>1.05</v>
@@ -1705,7 +1705,7 @@
         <v>2.1</v>
       </c>
       <c r="W7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X7" t="n">
         <v>13</v>
@@ -1717,10 +1717,10 @@
         <v>23</v>
       </c>
       <c r="AA7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC7" t="n">
         <v>11</v>
@@ -1756,7 +1756,7 @@
         <v>151</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO7" t="n">
         <v>13</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-03.xlsx
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="H2" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
         <v>4.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K2" t="n">
         <v>1.91</v>
@@ -771,40 +771,40 @@
         <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P2" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R2" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S2" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="U2" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V2" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W2" t="n">
         <v>5</v>
       </c>
       <c r="X2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA2" t="n">
         <v>21</v>
@@ -813,7 +813,7 @@
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AD2" t="n">
         <v>6.5</v>
@@ -825,7 +825,7 @@
         <v>101</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH2" t="n">
         <v>21</v>
@@ -846,10 +846,10 @@
         <v>201</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP2" t="n">
         <v>29</v>
@@ -864,7 +864,7 @@
         <v>301</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU2" t="n">
         <v>10</v>
@@ -882,7 +882,7 @@
         <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA2" t="n">
         <v>151</v>
@@ -953,10 +953,10 @@
         <v>9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P3" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q3" t="n">
         <v>2.2</v>
@@ -1111,28 +1111,28 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H4" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I4" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J4" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K4" t="n">
         <v>1.91</v>
       </c>
       <c r="L4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
         <v>1.57</v>
@@ -1162,7 +1162,7 @@
         <v>4.5</v>
       </c>
       <c r="X4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y4" t="n">
         <v>10</v>
@@ -1189,19 +1189,19 @@
         <v>126</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH4" t="n">
         <v>29</v>
       </c>
       <c r="AI4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ4" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AK4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL4" t="n">
         <v>81</v>
@@ -1237,7 +1237,7 @@
         <v>101</v>
       </c>
       <c r="AW4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AX4" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-03.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J2" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K2" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M2" t="n">
         <v>1.13</v>
@@ -783,28 +783,28 @@
         <v>1.4</v>
       </c>
       <c r="S2" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="U2" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V2" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W2" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="X2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y2" t="n">
         <v>10</v>
       </c>
       <c r="Z2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA2" t="n">
         <v>21</v>
@@ -825,31 +825,31 @@
         <v>101</v>
       </c>
       <c r="AG2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ2" t="n">
         <v>51</v>
       </c>
       <c r="AK2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM2" t="n">
         <v>201</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP2" t="n">
         <v>29</v>
@@ -861,31 +861,31 @@
         <v>81</v>
       </c>
       <c r="AS2" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AU2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AW2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY2" t="n">
         <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA2" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB2" t="n">
         <v>501</v>
@@ -929,28 +929,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="H3" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I3" t="n">
-        <v>5.5</v>
+        <v>6.25</v>
       </c>
       <c r="J3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K3" t="n">
         <v>2.1</v>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
         <v>1.4</v>
@@ -959,67 +959,67 @@
         <v>2.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R3" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S3" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T3" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U3" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="V3" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="W3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y3" t="n">
         <v>9</v>
       </c>
       <c r="Z3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA3" t="n">
         <v>15</v>
       </c>
       <c r="AB3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI3" t="n">
         <v>21</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AJ3" t="n">
         <v>81</v>
       </c>
-      <c r="AG3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ3" t="n">
+      <c r="AK3" t="n">
         <v>51</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>41</v>
       </c>
       <c r="AL3" t="n">
         <v>51</v>
@@ -1028,16 +1028,16 @@
         <v>351</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AO3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP3" t="n">
         <v>23</v>
       </c>
       <c r="AQ3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR3" t="n">
         <v>51</v>
@@ -1046,28 +1046,28 @@
         <v>201</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AY3" t="n">
         <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA3" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB3" t="n">
         <v>351</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-03.xlsx
@@ -747,34 +747,34 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K2" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="L2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q2" t="n">
         <v>2.88</v>
@@ -783,10 +783,10 @@
         <v>1.4</v>
       </c>
       <c r="S2" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="U2" t="n">
         <v>2.63</v>
@@ -795,16 +795,16 @@
         <v>1.44</v>
       </c>
       <c r="W2" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="X2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y2" t="n">
         <v>10</v>
       </c>
       <c r="Z2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA2" t="n">
         <v>21</v>
@@ -816,25 +816,25 @@
         <v>5.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH2" t="n">
         <v>23</v>
       </c>
       <c r="AI2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK2" t="n">
         <v>51</v>
@@ -846,10 +846,10 @@
         <v>201</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP2" t="n">
         <v>29</v>
@@ -864,7 +864,7 @@
         <v>351</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AU2" t="n">
         <v>11</v>
@@ -873,19 +873,19 @@
         <v>101</v>
       </c>
       <c r="AW2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX2" t="n">
         <v>34</v>
       </c>
       <c r="AY2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA2" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BB2" t="n">
         <v>501</v>
@@ -1111,10 +1111,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H4" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I4" t="n">
         <v>6</v>
@@ -1129,16 +1129,16 @@
         <v>6.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P4" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q4" t="n">
         <v>2.88</v>
@@ -1147,10 +1147,10 @@
         <v>1.4</v>
       </c>
       <c r="S4" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="U4" t="n">
         <v>2.63</v>
@@ -1165,7 +1165,7 @@
         <v>6.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Z4" t="n">
         <v>12</v>
@@ -1213,13 +1213,13 @@
         <v>3.4</v>
       </c>
       <c r="AO4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP4" t="n">
         <v>29</v>
       </c>
       <c r="AQ4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR4" t="n">
         <v>81</v>
@@ -1228,7 +1228,7 @@
         <v>351</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AU4" t="n">
         <v>11</v>
